--- a/backend/data/raw/raw-80-small.xlsx
+++ b/backend/data/raw/raw-80-small.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1328</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1313</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1292" workbookViewId="0">
-      <selection activeCell="H1313" sqref="H1313"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -66155,7 +66155,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1328"/>
+  <autoFilter ref="A1:P1313"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
